--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>156M文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>10分56秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时7分钟23秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58分钟47秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59分钟36秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,6 +670,9 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -686,6 +701,9 @@
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -713,6 +731,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
